--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H2">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I2">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J2">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.5866363555371</v>
+        <v>73.91316300000001</v>
       </c>
       <c r="N2">
-        <v>57.5866363555371</v>
+        <v>221.739489</v>
       </c>
       <c r="O2">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809399</v>
       </c>
       <c r="P2">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809398</v>
       </c>
       <c r="Q2">
-        <v>12.80063590397302</v>
+        <v>21.568747921356</v>
       </c>
       <c r="R2">
-        <v>12.80063590397302</v>
+        <v>194.118731292204</v>
       </c>
       <c r="S2">
-        <v>0.07043718841904958</v>
+        <v>0.07190368389068144</v>
       </c>
       <c r="T2">
-        <v>0.07043718841904958</v>
+        <v>0.07190368389068141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H3">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I3">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J3">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2969331831618</v>
+        <v>31.40056566666667</v>
       </c>
       <c r="N3">
-        <v>31.2969331831618</v>
+        <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="P3">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="Q3">
-        <v>6.956833597906518</v>
+        <v>9.163061868321334</v>
       </c>
       <c r="R3">
-        <v>6.956833597906518</v>
+        <v>82.46755681489199</v>
       </c>
       <c r="S3">
-        <v>0.03828089499707006</v>
+        <v>0.03054687766081102</v>
       </c>
       <c r="T3">
-        <v>0.03828089499707006</v>
+        <v>0.03054687766081102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H4">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I4">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J4">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.8600802448092</v>
+        <v>15.928304</v>
       </c>
       <c r="N4">
-        <v>15.8600802448092</v>
+        <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="P4">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="Q4">
-        <v>3.525455304737155</v>
+        <v>4.648070246848</v>
       </c>
       <c r="R4">
-        <v>3.525455304737155</v>
+        <v>41.832632221632</v>
       </c>
       <c r="S4">
-        <v>0.01939928308449389</v>
+        <v>0.01549526077960804</v>
       </c>
       <c r="T4">
-        <v>0.01939928308449389</v>
+        <v>0.01549526077960804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.51272455690132</v>
+        <v>0.514066</v>
       </c>
       <c r="H5">
-        <v>1.51272455690132</v>
+        <v>1.542198</v>
       </c>
       <c r="I5">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="J5">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5866363555371</v>
+        <v>73.91316300000001</v>
       </c>
       <c r="N5">
-        <v>57.5866363555371</v>
+        <v>221.739489</v>
       </c>
       <c r="O5">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809399</v>
       </c>
       <c r="P5">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809398</v>
       </c>
       <c r="Q5">
-        <v>87.1127189643673</v>
+        <v>37.99624405075801</v>
       </c>
       <c r="R5">
-        <v>87.1127189643673</v>
+        <v>341.966196456822</v>
       </c>
       <c r="S5">
-        <v>0.4793492327583812</v>
+        <v>0.1266679888522303</v>
       </c>
       <c r="T5">
-        <v>0.4793492327583812</v>
+        <v>0.1266679888522303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.51272455690132</v>
+        <v>0.514066</v>
       </c>
       <c r="H6">
-        <v>1.51272455690132</v>
+        <v>1.542198</v>
       </c>
       <c r="I6">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="J6">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.2969331831618</v>
+        <v>31.40056566666667</v>
       </c>
       <c r="N6">
-        <v>31.2969331831618</v>
+        <v>94.201697</v>
       </c>
       <c r="O6">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="P6">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="Q6">
-        <v>47.34363938186865</v>
+        <v>16.14196319000067</v>
       </c>
       <c r="R6">
-        <v>47.34363938186865</v>
+        <v>145.277668710006</v>
       </c>
       <c r="S6">
-        <v>0.2605146238515533</v>
+        <v>0.05381242447734322</v>
       </c>
       <c r="T6">
-        <v>0.2605146238515533</v>
+        <v>0.05381242447734322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.514066</v>
+      </c>
+      <c r="H7">
+        <v>1.542198</v>
+      </c>
+      <c r="I7">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="J7">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.928304</v>
+      </c>
+      <c r="N7">
+        <v>47.784912</v>
+      </c>
+      <c r="O7">
+        <v>0.1313760883883564</v>
+      </c>
+      <c r="P7">
+        <v>0.1313760883883564</v>
+      </c>
+      <c r="Q7">
+        <v>8.188199524064</v>
+      </c>
+      <c r="R7">
+        <v>73.69379571657599</v>
+      </c>
+      <c r="S7">
+        <v>0.02729698137132807</v>
+      </c>
+      <c r="T7">
+        <v>0.02729698137132807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.668241</v>
+      </c>
+      <c r="H8">
+        <v>5.004723</v>
+      </c>
+      <c r="I8">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J8">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>73.91316300000001</v>
+      </c>
+      <c r="N8">
+        <v>221.739489</v>
+      </c>
+      <c r="O8">
+        <v>0.6096331558809399</v>
+      </c>
+      <c r="P8">
+        <v>0.6096331558809398</v>
+      </c>
+      <c r="Q8">
+        <v>123.304968956283</v>
+      </c>
+      <c r="R8">
+        <v>1109.744720606547</v>
+      </c>
+      <c r="S8">
+        <v>0.4110614831380282</v>
+      </c>
+      <c r="T8">
+        <v>0.4110614831380281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.51272455690132</v>
-      </c>
-      <c r="H7">
-        <v>1.51272455690132</v>
-      </c>
-      <c r="I7">
-        <v>0.8718826334993864</v>
-      </c>
-      <c r="J7">
-        <v>0.8718826334993864</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>15.8600802448092</v>
-      </c>
-      <c r="N7">
-        <v>15.8600802448092</v>
-      </c>
-      <c r="O7">
-        <v>0.1514180599739458</v>
-      </c>
-      <c r="P7">
-        <v>0.1514180599739458</v>
-      </c>
-      <c r="Q7">
-        <v>23.99193286074837</v>
-      </c>
-      <c r="R7">
-        <v>23.99193286074837</v>
-      </c>
-      <c r="S7">
-        <v>0.1320187768894518</v>
-      </c>
-      <c r="T7">
-        <v>0.1320187768894518</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.668241</v>
+      </c>
+      <c r="H9">
+        <v>5.004723</v>
+      </c>
+      <c r="I9">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J9">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>31.40056566666667</v>
+      </c>
+      <c r="N9">
+        <v>94.201697</v>
+      </c>
+      <c r="O9">
+        <v>0.2589907557307037</v>
+      </c>
+      <c r="P9">
+        <v>0.2589907557307037</v>
+      </c>
+      <c r="Q9">
+        <v>52.38371106832567</v>
+      </c>
+      <c r="R9">
+        <v>471.453399614931</v>
+      </c>
+      <c r="S9">
+        <v>0.1746314535925495</v>
+      </c>
+      <c r="T9">
+        <v>0.1746314535925495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.668241</v>
+      </c>
+      <c r="H10">
+        <v>5.004723</v>
+      </c>
+      <c r="I10">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J10">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.928304</v>
+      </c>
+      <c r="N10">
+        <v>47.784912</v>
+      </c>
+      <c r="O10">
+        <v>0.1313760883883564</v>
+      </c>
+      <c r="P10">
+        <v>0.1313760883883564</v>
+      </c>
+      <c r="Q10">
+        <v>26.572249793264</v>
+      </c>
+      <c r="R10">
+        <v>239.150248139376</v>
+      </c>
+      <c r="S10">
+        <v>0.08858384623742033</v>
+      </c>
+      <c r="T10">
+        <v>0.08858384623742033</v>
       </c>
     </row>
   </sheetData>
